--- a/BEHAVE/dev/variables.xlsx
+++ b/BEHAVE/dev/variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>category</t>
   </si>
   <si>
     <t>make</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
 </sst>
 </file>
@@ -395,37 +413,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -434,36 +474,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
